--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390582.647553483</v>
+        <v>2466112.317218289</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>75.68973921670427</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>156.5536644568854</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>131.8179123113437</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3819108275729</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>127.8819313525579</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>83.3476682615137</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0887386816669</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.6090395815516</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>355.8046895420082</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.61199297579873</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>36.19742803492223</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1433,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.26009267756244</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1695767361642</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>70.0246819557603</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>42.01639299572088</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.9886040864988</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>105.5537645936674</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>157.2611602185237</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273959</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>135.9059707721073</v>
       </c>
       <c r="U28" t="n">
-        <v>34.5642028284875</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>54.403207309819</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>88.8649427882488</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.6211591710422</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>122.5264189150277</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>94.3054205998925</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>75.09631833451641</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>83.63833651398795</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>198.2712803951913</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>210.9685212521338</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>220.0883375064754</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.309493689272</v>
+        <v>1426.815961912944</v>
       </c>
       <c r="C2" t="n">
-        <v>959.3469767488602</v>
+        <v>1426.815961912944</v>
       </c>
       <c r="D2" t="n">
-        <v>959.3469767488602</v>
+        <v>1426.815961912944</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1041.0277093147</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>630.0418045250922</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>212.077996423279</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.048665729205</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1714.909333753394</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2349.71126146129</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>2349.71126146129</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>2349.71126146129</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>2349.71126146129</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2349.71126146129</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2349.71126146129</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2349.71126146129</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2349.71126146129</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X4" t="n">
-        <v>2349.71126146129</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y4" t="n">
-        <v>2349.71126146129</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>803.4111058960621</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>803.4111058960621</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>803.4111058960621</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2512.946733515829</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2512.946733515829</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.480975254749</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883532</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>2091.914583926163</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287637</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311825</v>
+        <v>2478.514423990285</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.1627947174725</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="C10" t="n">
-        <v>218.1627947174725</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="D10" t="n">
-        <v>218.1627947174725</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>218.1627947174725</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>218.1627947174725</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>218.1627947174725</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>218.1627947174725</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>81.83388381612076</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610026</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610026</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610026</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610026</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.1627947174725</v>
+        <v>407.4645182330357</v>
       </c>
     </row>
     <row r="11">
@@ -5081,7 +5083,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5127,7 +5129,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.7525386093388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>306.4010034395785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2811958984813</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5676,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1428.184268582387</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1139.055629795946</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>884.3711415900586</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344997</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="X19" t="n">
-        <v>877.929660728721</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.929660728721</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,37 +5764,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.5778825909696</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>699.5778825909696</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.78763177146</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344997</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X22" t="n">
-        <v>920.3704617344997</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.5778825909696</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231263</v>
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126481</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4075.77845704364</v>
+        <v>781.8780707889953</v>
       </c>
       <c r="C25" t="n">
-        <v>4075.77845704364</v>
+        <v>781.8780707889953</v>
       </c>
       <c r="D25" t="n">
-        <v>3925.661817631304</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E25" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803797</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U25" t="n">
-        <v>4637.069157803797</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>4637.069157803797</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>4478.219501017409</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X25" t="n">
-        <v>4478.219501017409</v>
+        <v>781.8780707889953</v>
       </c>
       <c r="Y25" t="n">
-        <v>4257.426921873879</v>
+        <v>781.8780707889953</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6239,37 +6241,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211719</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395486</v>
+        <v>966.6932390011334</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1966.019627967825</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1050.642398679616</v>
       </c>
       <c r="U28" t="n">
-        <v>1240.217519157017</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="V28" t="n">
-        <v>985.5330309511296</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W28" t="n">
-        <v>696.115860914169</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X28" t="n">
-        <v>468.1263100161517</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6470,19 +6472,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.0324822735071</v>
+        <v>152.1698261166687</v>
       </c>
       <c r="C31" t="n">
-        <v>337.0962993456002</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>186.9796599332645</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028587</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150545</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170372</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735071</v>
+        <v>333.8182909469084</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6777,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609662</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550793</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181187</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="X34" t="n">
-        <v>247.3337308726216</v>
+        <v>558.0926555785011</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.3337308726216</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514081</v>
@@ -6962,25 +6964,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4282.308764190889</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>4113.372581262982</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>3963.255941850646</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>3963.255941850646</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>3816.365994352736</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014291</v>
+        <v>1423.06140355334</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014291</v>
+        <v>1423.06140355334</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.725934227849</v>
+        <v>1133.932764766898</v>
       </c>
       <c r="V37" t="n">
-        <v>4571.725934227849</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="W37" t="n">
-        <v>4282.308764190889</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X37" t="n">
-        <v>4282.308764190889</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y37" t="n">
-        <v>4282.308764190889</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,13 +7168,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514081</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256434</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.2811958984813</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473454</v>
+        <v>1103.437988839333</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473454</v>
+        <v>1103.437988839333</v>
       </c>
       <c r="V40" t="n">
-        <v>1298.996260473454</v>
+        <v>848.7535006334456</v>
       </c>
       <c r="W40" t="n">
-        <v>1298.996260473454</v>
+        <v>559.336330596485</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.722239872251</v>
+        <v>559.336330596485</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.929660728721</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7405,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
@@ -7427,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473454</v>
+        <v>4744.160657054475</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>4520.375241843982</v>
       </c>
       <c r="U43" t="n">
-        <v>862.1113288466635</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V43" t="n">
-        <v>607.4268406407766</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W43" t="n">
-        <v>318.0096706038159</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7627,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,13 +7639,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
@@ -7655,28 +7657,28 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
         <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X46" t="n">
-        <v>987.1876484941987</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627467</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776761</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>39.88923345256775</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928343</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11075,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.7842838544522</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776761</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>139.9867284210654</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>16.54007865287298</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>151.522879102629</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>183.6932623933163</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>10.62686893171355</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>43.06170842454492</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>129.2618381180673</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>85.64159028628194</v>
       </c>
       <c r="U28" t="n">
-        <v>251.6731495700898</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.8436137888088</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>57.56901985832037</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,7 +24894,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.08849621799499</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>96.05823443706713</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>72.18814786348509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>122.8244916490868</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>137.9092245444013</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>27.43837499384585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>75.26883114644357</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>5.621317882561783</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822996.3863585981</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196781</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26432,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687077</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26505,13 @@
         <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>346763.337301671</v>
       </c>
       <c r="E6" t="n">
-        <v>-72329.83339280519</v>
+        <v>-72329.83339280571</v>
       </c>
       <c r="F6" t="n">
+        <v>452830.2030840907</v>
+      </c>
+      <c r="G6" t="n">
         <v>452830.2030840908</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>452830.203084091</v>
+      </c>
+      <c r="I6" t="n">
         <v>452830.2030840906</v>
-      </c>
-      <c r="H6" t="n">
-        <v>452830.2030840908</v>
-      </c>
-      <c r="I6" t="n">
-        <v>452830.2030840907</v>
       </c>
       <c r="J6" t="n">
         <v>276406.9838914977</v>
       </c>
       <c r="K6" t="n">
+        <v>452830.2030840908</v>
+      </c>
+      <c r="L6" t="n">
+        <v>452830.2030840908</v>
+      </c>
+      <c r="M6" t="n">
+        <v>318029.1878502535</v>
+      </c>
+      <c r="N6" t="n">
+        <v>452830.2030840908</v>
+      </c>
+      <c r="O6" t="n">
         <v>452830.203084091</v>
       </c>
-      <c r="L6" t="n">
-        <v>452830.2030840905</v>
-      </c>
-      <c r="M6" t="n">
-        <v>318029.1878502537</v>
-      </c>
-      <c r="N6" t="n">
-        <v>452830.2030840905</v>
-      </c>
-      <c r="O6" t="n">
-        <v>452830.2030840908</v>
-      </c>
       <c r="P6" t="n">
-        <v>452830.2030840905</v>
+        <v>452830.2030840906</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541001</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,32 +27020,32 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990173</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.926370499017</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>306.2406308555575</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>167.3691083074717</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,10 +27587,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>93.21719314674053</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>260.1941782960905</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.5484592446888</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>199.870327117577</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>83.96213399753721</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>126.0489046421611</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>220.124802081929</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>26.12568053025353</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>17.58796621273824</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>189.5122273541149</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29056,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -30004,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30697,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109122</v>
@@ -36674,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337003</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504661</v>
@@ -36686,16 +36688,16 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>127.9022662376418</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081117</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303329</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081117</v>
@@ -37795,13 +37797,13 @@
         <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081117</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337003</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504661</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2466112.317218289</v>
+        <v>2459095.302326578</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>322.8156897822619</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>156.5536644568854</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>71.19517843009933</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>26.32882004050054</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3819108275729</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>150.0269500516282</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>130.7621952949256</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>83.3476682615137</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>355.8046895420082</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.77270032618484</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>18.01892853764494</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>36.19742803492223</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>96.71233187893839</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.5936327017012</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>209.1695767361642</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>70.0246819557603</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>105.5537645936674</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>135.9059707721073</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>54.403207309819</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>41.88171928086648</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.5264189150277</v>
+        <v>94.01765267707079</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>75.09631833451641</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>82.93992391707198</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>83.63833651398795</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056512</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1426.815961912944</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.815961912944</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1426.815961912944</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.0277093147</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F2" t="n">
-        <v>630.0418045250922</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>212.077996423279</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.815961912944</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.8857516585174</v>
+        <v>656.2146625598692</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>803.4111058960621</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>803.4111058960621</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>803.4111058960621</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224074</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2545.606717228699</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2326.972050200762</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2326.972050200762</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.010945960184</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C7" t="n">
-        <v>295.8809182883532</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="D7" t="n">
-        <v>295.8809182883532</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E7" t="n">
-        <v>295.8809182883532</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="F7" t="n">
-        <v>295.8809182883532</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X7" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y7" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2091.914583926163</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1722.952066985752</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1722.952066985752</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2326.972050200762</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990285</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y8" t="n">
-        <v>2478.514423990285</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407.4645182330357</v>
+        <v>517.0636002298168</v>
       </c>
       <c r="C10" t="n">
-        <v>407.4645182330357</v>
+        <v>517.0636002298168</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>366.946960817481</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>219.0338672350879</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>72.14391973717753</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>72.14391973717753</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>72.14391973717753</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>72.14391973717753</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541693</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>407.4645182330357</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>407.4645182330357</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188992</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>420.0340835819385</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,28 +5533,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1428.184268582387</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1139.055629795946</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>884.3711415900586</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>594.9539715530981</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>594.9539715530981</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.9539715530981</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727022</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690061</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5989,52 +5989,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8780707889953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8780707889953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473454</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>781.8780707889953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>781.8780707889953</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6214,22 +6214,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011334</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1966.019627967825</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2486.320249703573</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6393,13 +6393,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1050.642398679616</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>761.5137598931742</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.1698261166687</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6630,13 +6630,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>844.0280401273991</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>554.6108700904385</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X31" t="n">
-        <v>554.6108700904385</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y31" t="n">
-        <v>333.8182909469084</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6779,16 +6779,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765184</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765184</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765184</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>558.0926555785011</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y34" t="n">
-        <v>434.3285960683721</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="35">
@@ -6946,10 +6946,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.2482765610114</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028583</v>
@@ -7101,7 +7101,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471189</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1423.06140355334</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1423.06140355334</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U37" t="n">
-        <v>1133.932764766898</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="V37" t="n">
-        <v>879.2482765610114</v>
+        <v>791.1494121964562</v>
       </c>
       <c r="W37" t="n">
-        <v>879.2482765610114</v>
+        <v>791.1494121964562</v>
       </c>
       <c r="X37" t="n">
-        <v>879.2482765610114</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.2482765610114</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514081</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1103.437988839333</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1103.437988839333</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>848.7535006334456</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>559.336330596485</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014291</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S43" t="n">
-        <v>4744.160657054475</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843982</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.24660305754</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851653</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814692</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916675</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916675</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7815,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765184</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706316</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>241.980548233671</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627467</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.88923345256775</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298389</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776764</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928343</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>121.8723214731564</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>25.23834748023614</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>16.54007865287298</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>151.522879102629</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211572</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>43.06170842454492</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>85.64159028628194</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.8436137888088</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>124.6118491825111</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.05823443706713</v>
+        <v>124.567000675024</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>122.8244916490868</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>169.197719406756</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>137.9092245444013</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424403</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338594</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="E2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="F2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="J2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196783</v>
       </c>
       <c r="N2" t="n">
         <v>566992.1366196781</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26441,25 +26441,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="O4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128737</v>
+        <v>-243204.5419128736</v>
       </c>
       <c r="C6" t="n">
+        <v>346763.337301671</v>
+      </c>
+      <c r="D6" t="n">
         <v>346763.3373016709</v>
       </c>
-      <c r="D6" t="n">
-        <v>346763.337301671</v>
-      </c>
       <c r="E6" t="n">
-        <v>-72329.83339280571</v>
+        <v>-73304.42465252665</v>
       </c>
       <c r="F6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="G6" t="n">
-        <v>452830.2030840908</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="H6" t="n">
-        <v>452830.203084091</v>
+        <v>451855.6118243692</v>
       </c>
       <c r="I6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243693</v>
       </c>
       <c r="J6" t="n">
-        <v>276406.9838914977</v>
+        <v>275432.3926317762</v>
       </c>
       <c r="K6" t="n">
-        <v>452830.2030840908</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="L6" t="n">
-        <v>452830.2030840908</v>
+        <v>451855.6118243687</v>
       </c>
       <c r="M6" t="n">
-        <v>318029.1878502535</v>
+        <v>317054.5965905325</v>
       </c>
       <c r="N6" t="n">
-        <v>452830.2030840908</v>
+        <v>451855.6118243692</v>
       </c>
       <c r="O6" t="n">
-        <v>452830.203084091</v>
+        <v>451855.6118243692</v>
       </c>
       <c r="P6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243691</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,37 +26968,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84.06035595944951</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>167.3691083074717</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>108.636801751838</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>260.1941782960905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5484592446888</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>24.38876275734327</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>36.48462580370219</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>83.96213399753721</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.12568053025353</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>113.6430124827867</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.18103065089204</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>189.5122273541149</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
@@ -33663,16 +33663,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946991</v>
@@ -33687,7 +33687,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
         <v>0.2670576580354892</v>
@@ -33733,25 +33733,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458548</v>
@@ -33760,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,19 +33812,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
@@ -33833,22 +33833,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.9022662376418</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>537.6668875337006</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504661</v>
@@ -37399,16 +37399,16 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459095.302326578</v>
+        <v>2464034.56517561</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>322.8156897822619</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>23.8706712247265</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.19517843009933</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>37.40475229733291</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.0269500516282</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>328.8165131028215</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.7621952949256</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>11.9893486336639</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.77270032618484</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.01892853764494</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>36.39183767369512</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>88.70212691485455</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.71233187893839</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.5936327017012</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="23">
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="24">
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>103.6823614795157</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>94.16481274941263</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>41.88171928086648</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.01765267707079</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>164.1053689370332</v>
       </c>
       <c r="V37" t="n">
-        <v>82.93992391707198</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4315,13 +4315,13 @@
         <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>951.4492202526051</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>558.7154669051573</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>656.2146625598692</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>487.2784796319623</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>249.4739324659484</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>249.4739324659484</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>91.72555989847851</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>91.72555989847851</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2545.606717228699</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2326.972050200762</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2326.972050200762</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1995.909162857192</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1995.909162857192</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>1251.240383333747</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>566.6290395096265</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148976</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148976</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>240.3883158012044</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>240.3883158012044</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2580.733835562671</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2580.733835562671</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.972050200762</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.909162857192</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.909162857192</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,7 +4889,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298168</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="C10" t="n">
-        <v>517.0636002298168</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D10" t="n">
-        <v>366.946960817481</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E10" t="n">
-        <v>219.0338672350879</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>72.14391973717753</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>72.14391973717753</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>72.14391973717753</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>72.14391973717753</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600565</v>
+        <v>691.3695522128029</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>186.8151994550884</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>186.8151994550884</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364826</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.6916867163428</v>
+        <v>515.3536117832385</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.509052552801</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>792.456816243504</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y16" t="n">
-        <v>571.6642370999739</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823794</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6083,13 +6083,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1394.186612497786</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1105.057973711344</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>850.3734855054568</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>692.3809108364826</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>1175.95939372345</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.1598612984388</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C37" t="n">
-        <v>394.223678370532</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909233</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227915</v>
+        <v>1333.153271631606</v>
       </c>
       <c r="V37" t="n">
-        <v>791.1494121964562</v>
+        <v>1333.153271631606</v>
       </c>
       <c r="W37" t="n">
-        <v>791.1494121964562</v>
+        <v>1043.736101594646</v>
       </c>
       <c r="X37" t="n">
-        <v>563.1598612984388</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.1598612984388</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7253,16 +7253,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7830,22 +7830,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776764</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298298</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208072</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>60.21170145268158</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.8723214731564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.23834748023614</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.21483855143168</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>48.75693659211572</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14.74113413690307</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>117.8651995788735</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>73.0820083492152</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>124.6118491825111</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,13 +24891,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.567000675024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>122.1319834615441</v>
       </c>
       <c r="V37" t="n">
-        <v>169.197719406756</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>61.34209567542524</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.98990566424403</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.1366196782</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196781</v>
       </c>
       <c r="I2" t="n">
         <v>566992.1366196782</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="L2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="N2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="O2" t="n">
-        <v>566992.1366196782</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338368</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26441,10 +26441,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26453,7 +26453,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128736</v>
+        <v>-243204.5419128735</v>
       </c>
       <c r="C6" t="n">
+        <v>346763.3373016709</v>
+      </c>
+      <c r="D6" t="n">
         <v>346763.337301671</v>
       </c>
-      <c r="D6" t="n">
-        <v>346763.3373016709</v>
-      </c>
       <c r="E6" t="n">
-        <v>-73304.42465252665</v>
+        <v>-72427.29251877761</v>
       </c>
       <c r="F6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="G6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="H6" t="n">
-        <v>451855.6118243692</v>
+        <v>452732.7439581188</v>
       </c>
       <c r="I6" t="n">
-        <v>451855.6118243693</v>
+        <v>452732.7439581188</v>
       </c>
       <c r="J6" t="n">
-        <v>275432.3926317762</v>
+        <v>276309.5247655253</v>
       </c>
       <c r="K6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="L6" t="n">
-        <v>451855.6118243687</v>
+        <v>452732.7439581182</v>
       </c>
       <c r="M6" t="n">
-        <v>317054.5965905325</v>
+        <v>317931.7287242815</v>
       </c>
       <c r="N6" t="n">
-        <v>451855.6118243692</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="O6" t="n">
-        <v>451855.6118243692</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="P6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581182</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,7 +26761,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.06035595944951</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>389.9134987960685</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.636801751838</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>7.795206891204089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>24.38876275734327</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>40.91458757564754</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.48462580370219</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>369.9410214385979</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>113.6430124827867</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>27.18103065089204</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>182.1928156783997</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.002145490419948e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36451,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337006</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315245</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523318</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
